--- a/data/extracted_data/raw_round2/Horner_1993_Table_1.xlsx
+++ b/data/extracted_data/raw_round2/Horner_1993_Table_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87E28E5-0097-D24D-A408-58B52FB4419B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{F87E28E5-0097-D24D-A408-58B52FB4419B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B94B90D-E3BB-634E-8426-2FB5B91E97CE}"/>
   <bookViews>
-    <workbookView xWindow="20040" yWindow="5180" windowWidth="27640" windowHeight="16940" xr2:uid="{2186E0BA-6651-0340-856B-7132DBB1C69C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{2186E0BA-6651-0340-856B-7132DBB1C69C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
   <si>
     <t>treatment</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>whole</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>Depuration</t>
   </si>
 </sst>
 </file>
@@ -109,9 +115,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +155,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -255,7 +261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -405,190 +411,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5519D80-60C4-E64D-9409-EAD553199045}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>12.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>21</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>7.9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>35</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>76</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
         <v>86</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>21</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>35</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
         <v>76</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>12.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
         <v>86</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>10.4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>10.7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
         <v>21</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
         <v>35</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
         <v>76</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>10.3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
         <v>86</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>7.2</v>
       </c>
     </row>
